--- a/Költségvetés.xlsx
+++ b/Költségvetés.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Birovits Bence\ikt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Dokumentumok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652F264-EA8E-472E-80A1-D73D9CB8C059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C822CC4A-95D2-4874-9E72-40CAE0D0BBED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="8100" xr2:uid="{EE664CF0-FD9B-4BE0-807B-A43844A4A6FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{EE664CF0-FD9B-4BE0-807B-A43844A4A6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Költségvetés" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>KÖLTSÉGEVETÉS</t>
   </si>
@@ -33,30 +33,49 @@
     <t xml:space="preserve">GÉPEK: </t>
   </si>
   <si>
-    <t>SOFTVEREK:</t>
-  </si>
-  <si>
     <t>1db:</t>
   </si>
   <si>
-    <t>180db:</t>
-  </si>
-  <si>
     <t>FELHŐSZOLGÁLTATÁS:</t>
   </si>
   <si>
-    <t>5 évre:</t>
+    <t>Összesen 1 évre:</t>
+  </si>
+  <si>
+    <t>Összesen 5 évre:</t>
+  </si>
+  <si>
+    <t>160db:</t>
+  </si>
+  <si>
+    <t>5db:</t>
+  </si>
+  <si>
+    <t>9db:</t>
+  </si>
+  <si>
+    <t>ROUTEREK: (Cisco ISR4221/K9 Router)</t>
+  </si>
+  <si>
+    <t>SWITCHEK: (Cisco SG200-50 SLM2048T-EU)</t>
+  </si>
+  <si>
+    <t>SOFTVEREK: (Microsoft office 365 csomag)</t>
+  </si>
+  <si>
+    <t>1db 5 évre:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;Ft&quot;;[Red]\-#,##0\ &quot;Ft&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0&quot; Ft&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0&quot; Ft/Év&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +84,130 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="double"/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -99,20 +232,268 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,75 +806,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FB20CD-F36A-45C0-84D1-EEE87BBC042D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>215000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9">
         <f>B3*160</f>
         <v>34400000</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
         <v>100000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9">
         <f>B4*160</f>
         <v>16000000</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <v>514641</v>
+      </c>
+      <c r="C5" s="10">
+        <f>B5*5</f>
+        <v>2573205</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>282590</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9">
+        <f>B6*9</f>
+        <v>2543310</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <v>50000</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="12">
+        <v>2250000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <f>(E3+E4+C5+D6+B7)</f>
+        <v>55566515</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="1">
-        <v>2250000</v>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <f>(E3+E4+F7+D6+C5)</f>
+        <v>57766515</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
